--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/39.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/39.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3176710041590908</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.604495952396712</v>
+        <v>-1.602518197370798</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06125070721689454</v>
+        <v>0.06433735871376518</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1881274382472586</v>
+        <v>-0.1871499723729309</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3265762885432464</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.540323192821283</v>
+        <v>-1.537037427905568</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08716063597262516</v>
+        <v>0.09055107315990685</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1891946232115005</v>
+        <v>-0.1884091876699714</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3536858711124904</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.647192795081114</v>
+        <v>-1.644217111932296</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1002092544882079</v>
+        <v>0.1033635888072944</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1871672865832652</v>
+        <v>-0.1861284339632067</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3951273397742543</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.695016218043593</v>
+        <v>-1.691896512145175</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1425188884687703</v>
+        <v>0.1463500510100162</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2180086172460309</v>
+        <v>-0.2170106891231262</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4391336064949832</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.780486243339781</v>
+        <v>-1.780746743504357</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2307395121794313</v>
+        <v>0.2354930499257594</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2666741404384055</v>
+        <v>-0.266702472782589</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4719188033324729</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.706940199897007</v>
+        <v>-1.708398528612892</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3036952984517182</v>
+        <v>0.309682867189146</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2770658146772327</v>
+        <v>-0.2776828301727826</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4846843701012561</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.537329408452569</v>
+        <v>-1.540326340859526</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3745041226425509</v>
+        <v>0.3797251440679053</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2798486804836923</v>
+        <v>-0.2808167022432922</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.47533110653325</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.182691882289675</v>
+        <v>-1.185484979220423</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4051235166092132</v>
+        <v>0.4092222624010802</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2750117197239353</v>
+        <v>-0.2766046270746916</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4473471553315332</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.785207981625855</v>
+        <v>-0.7883308355625156</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4442851123471743</v>
+        <v>0.4485695923953548</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2358532720242168</v>
+        <v>-0.2375201582736742</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.4054549242280944</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2599971513258481</v>
+        <v>-0.2617411645122492</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4158488829017561</v>
+        <v>0.4199979973055047</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1780489938135703</v>
+        <v>-0.1798622638413087</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.3531777571365345</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3114205842990619</v>
+        <v>0.3106351487575329</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2896487518132309</v>
+        <v>0.2936640745916689</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1240868962780188</v>
+        <v>-0.1260937706576772</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2929207414218683</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8936234989431242</v>
+        <v>0.893569982293</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09413668871822981</v>
+        <v>0.09745786906417427</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01086770088286037</v>
+        <v>-0.01239135139227944</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2273968672968497</v>
       </c>
       <c r="E14" t="n">
-        <v>1.596616640955801</v>
+        <v>1.600457247611775</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01328404851437738</v>
+        <v>0.01769759813050451</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08692610712355137</v>
+        <v>0.0856369854632061</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.1583498481701749</v>
       </c>
       <c r="E15" t="n">
-        <v>2.260939281196363</v>
+        <v>2.268696047426133</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1298950268356184</v>
+        <v>-0.1242490202475128</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2040205375953521</v>
+        <v>0.2026070684244241</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.08645249180387313</v>
       </c>
       <c r="E16" t="n">
-        <v>2.86157868180822</v>
+        <v>2.870382170753655</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2554403659696826</v>
+        <v>-0.2483163554266756</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3074587781707481</v>
+        <v>0.3058296683802019</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.01153873819073211</v>
       </c>
       <c r="E17" t="n">
-        <v>3.398752057430113</v>
+        <v>3.407251760685136</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.367376735780981</v>
+        <v>-0.3575784667508842</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3926462670346627</v>
+        <v>0.39081568279659</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.06636862615487651</v>
       </c>
       <c r="E18" t="n">
-        <v>3.870702802722668</v>
+        <v>3.880461721274732</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5460656825075202</v>
+        <v>-0.5354111470754359</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4889888294112352</v>
+        <v>0.4864231782435151</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.147051881138087</v>
       </c>
       <c r="E19" t="n">
-        <v>4.24606701267485</v>
+        <v>4.256071478209837</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7475133717089462</v>
+        <v>-0.7361662678634895</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6103708879694589</v>
+        <v>0.6080444877081765</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.233154397751602</v>
       </c>
       <c r="E20" t="n">
-        <v>4.521528228998076</v>
+        <v>4.5300279322531</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9542718014256406</v>
+        <v>-0.9428168772703749</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7169854991316398</v>
+        <v>0.7146748390615704</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3297226627277319</v>
       </c>
       <c r="E21" t="n">
-        <v>4.729316067220101</v>
+        <v>4.737138942252966</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.074686625233825</v>
+        <v>-1.062026789441204</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8601299460609669</v>
+        <v>0.8582442711536487</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4386239106840804</v>
       </c>
       <c r="E22" t="n">
-        <v>4.876220845830217</v>
+        <v>4.882847466330892</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.242580948826484</v>
+        <v>-1.229038875316374</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9605964385353473</v>
+        <v>0.959239634052786</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5560685778333344</v>
       </c>
       <c r="E23" t="n">
-        <v>4.922289237472445</v>
+        <v>4.927061663448228</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.493123081430839</v>
+        <v>-1.481681536438105</v>
       </c>
       <c r="G23" t="n">
-        <v>1.014220121959819</v>
+        <v>1.011928350119205</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6748307841191836</v>
       </c>
       <c r="E24" t="n">
-        <v>4.97185037754484</v>
+        <v>4.97527544315279</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.700958927236064</v>
+        <v>-1.69107959622122</v>
       </c>
       <c r="G24" t="n">
-        <v>1.110663421560155</v>
+        <v>1.109237360236256</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7880933528997196</v>
       </c>
       <c r="E25" t="n">
-        <v>4.938163220310762</v>
+        <v>4.939889919286829</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.860701405799507</v>
+        <v>-1.852767562418591</v>
       </c>
       <c r="G25" t="n">
-        <v>1.157772239841563</v>
+        <v>1.156590151481466</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8892355397282725</v>
       </c>
       <c r="E26" t="n">
-        <v>4.926046421114989</v>
+        <v>4.927965150423855</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.922872800062202</v>
+        <v>-1.914856320677418</v>
       </c>
       <c r="G26" t="n">
-        <v>1.186502810862665</v>
+        <v>1.185655988575405</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9726362925708818</v>
       </c>
       <c r="E27" t="n">
-        <v>4.832615794112823</v>
+        <v>4.832873933248717</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.008936230567121</v>
+        <v>-2.002563027144974</v>
       </c>
       <c r="G27" t="n">
-        <v>1.20681552762305</v>
+        <v>1.205827043614873</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.034901454194062</v>
       </c>
       <c r="E28" t="n">
-        <v>4.715104248573878</v>
+        <v>4.715030269675177</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.074036087404996</v>
+        <v>-2.068826871123051</v>
       </c>
       <c r="G28" t="n">
-        <v>1.195617955594117</v>
+        <v>1.194324111876408</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.074037481792248</v>
       </c>
       <c r="E29" t="n">
-        <v>4.592381125724306</v>
+        <v>4.591534303437046</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.167581617803017</v>
+        <v>-2.164406034225793</v>
       </c>
       <c r="G29" t="n">
-        <v>1.161009997174079</v>
+        <v>1.159527271161813</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.089369937186347</v>
       </c>
       <c r="E30" t="n">
-        <v>4.488980661607821</v>
+        <v>4.487112300910837</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.170348743418264</v>
+        <v>-2.167645365577429</v>
       </c>
       <c r="G30" t="n">
-        <v>1.114129411665259</v>
+        <v>1.112201238241666</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.083005880883023</v>
       </c>
       <c r="E31" t="n">
-        <v>4.302051724781273</v>
+        <v>4.299657641697774</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.135248904022819</v>
+        <v>-2.133003565746284</v>
       </c>
       <c r="G31" t="n">
-        <v>1.048211064884307</v>
+        <v>1.046027900363063</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.057555621571095</v>
       </c>
       <c r="E32" t="n">
-        <v>4.11709031185635</v>
+        <v>4.113651080076308</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.053543145455222</v>
+        <v>-2.050857081824722</v>
       </c>
       <c r="G32" t="n">
-        <v>1.021567643218051</v>
+        <v>1.018981529801754</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.014668432910492</v>
       </c>
       <c r="E33" t="n">
-        <v>3.900933413966369</v>
+        <v>3.896899202958476</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.99783860875239</v>
+        <v>-1.995477580070439</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9393802347993353</v>
+        <v>0.9372616050620646</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9568091973959784</v>
       </c>
       <c r="E34" t="n">
-        <v>3.687332723129381</v>
+        <v>3.681970039983109</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.898357452247944</v>
+        <v>-1.895541532039937</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8487796941772676</v>
+        <v>0.8458410004777993</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8866528077373126</v>
       </c>
       <c r="E35" t="n">
-        <v>3.447828399613147</v>
+        <v>3.442645154646704</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.834558522213824</v>
+        <v>-1.831871671573764</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7793670249470286</v>
+        <v>0.7761859323028799</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8073957235845268</v>
       </c>
       <c r="E36" t="n">
-        <v>3.21354824556051</v>
+        <v>3.208239079064362</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.753232889264021</v>
+        <v>-1.749618154351954</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7263115624253463</v>
+        <v>0.7235003642747033</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7233061638003075</v>
       </c>
       <c r="E37" t="n">
-        <v>3.026606716580991</v>
+        <v>3.022715741313136</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.678966732073251</v>
+        <v>-1.673975517439606</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6651404573142378</v>
+        <v>0.662283612609077</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6392204715618353</v>
       </c>
       <c r="E38" t="n">
-        <v>2.793267825962892</v>
+        <v>2.787571450762905</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.610479586086337</v>
+        <v>-1.606043213192951</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5850008477723345</v>
+        <v>0.581684389483754</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5589238235805203</v>
       </c>
       <c r="E39" t="n">
-        <v>2.544779001302274</v>
+        <v>2.538737915914722</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.560051948487666</v>
+        <v>-1.555176424259437</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5271572190836555</v>
+        <v>0.5245711056673585</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4845683219572042</v>
       </c>
       <c r="E40" t="n">
-        <v>2.298931380727198</v>
+        <v>2.292983162467802</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.491334208699481</v>
+        <v>-1.485775560172608</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4999676127823074</v>
+        <v>0.4976805629990576</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4187736104874236</v>
       </c>
       <c r="E41" t="n">
-        <v>2.097557670424473</v>
+        <v>2.090923179828191</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.468188257520755</v>
+        <v>-1.462883813081971</v>
       </c>
       <c r="G41" t="n">
-        <v>0.426815074119858</v>
+        <v>0.4238228637702653</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3616326779516646</v>
       </c>
       <c r="E42" t="n">
-        <v>1.893322393359224</v>
+        <v>1.886900395344317</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.432409228874469</v>
+        <v>-1.427174828286583</v>
       </c>
       <c r="G42" t="n">
-        <v>0.410440553200967</v>
+        <v>0.4082983131768767</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3115360410928482</v>
       </c>
       <c r="E43" t="n">
-        <v>1.748333196019732</v>
+        <v>1.742671449240413</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.39743767203741</v>
+        <v>-1.392930468283565</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3653212950888827</v>
+        <v>0.3628296228198637</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2674948041165814</v>
       </c>
       <c r="E44" t="n">
-        <v>1.513725645989864</v>
+        <v>1.507007732380153</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.357441059155599</v>
+        <v>-1.35302593552035</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3121792615155289</v>
+        <v>0.3099646166118588</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2276253455965983</v>
       </c>
       <c r="E45" t="n">
-        <v>1.315915514977764</v>
+        <v>1.307999772816743</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.303504145925988</v>
+        <v>-1.298985137028734</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2950633775905052</v>
+        <v>0.2936262981327577</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1902486360683742</v>
       </c>
       <c r="E46" t="n">
-        <v>1.156368214785363</v>
+        <v>1.148790886735421</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.257344461174724</v>
+        <v>-1.253961894083049</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2721047346872134</v>
+        <v>0.2711005104878235</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1546404353081194</v>
       </c>
       <c r="E47" t="n">
-        <v>1.009504360672402</v>
+        <v>1.002437014817762</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.179550140123559</v>
+        <v>-1.175819714806076</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2431238946258251</v>
+        <v>0.2425163232450031</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1204870108945268</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8615953578628979</v>
+        <v>0.8545327340656217</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.159955176082487</v>
+        <v>-1.157842842421701</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2040976645322959</v>
+        <v>0.2033799118129827</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.08765534883704777</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7312429643323815</v>
+        <v>0.7252034529639506</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.079176514777335</v>
+        <v>-1.076114260576845</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1641962798073234</v>
+        <v>0.1640640622011342</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.05597778234280159</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5983091794429318</v>
+        <v>0.591950142192877</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.021931013354751</v>
+        <v>-1.01877116996874</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1217009115704474</v>
+        <v>0.1214238842050985</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.02622307969224621</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4807519873494687</v>
+        <v>0.4738152850818965</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9613910899112836</v>
+        <v>-0.9574033124674683</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1012008865346273</v>
+        <v>0.1012481071082663</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.0009638516501617439</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3615688335037019</v>
+        <v>0.3550602644371235</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.934871228746049</v>
+        <v>-0.9309338199141153</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05936345829045502</v>
+        <v>0.05920290834008234</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02574828399791154</v>
       </c>
       <c r="E53" t="n">
-        <v>0.20177913436662</v>
+        <v>0.1944394832039948</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9161734556041181</v>
+        <v>-0.9124784457168648</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02208596344069083</v>
+        <v>0.02193013554768206</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.04758449236939963</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09837080015452866</v>
+        <v>0.0918401948202521</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.868958391032022</v>
+        <v>-0.8647919624179391</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01498218686594037</v>
+        <v>-0.01520254954292247</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.06667111963783118</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002701917961872856</v>
+        <v>-0.002556879922392742</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8423385796525849</v>
+        <v>-0.8374669904721592</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0429792649765157</v>
+        <v>-0.04317286932843569</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.08325693668565805</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.09443237603271389</v>
+        <v>-0.09997449735881361</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8404835981181319</v>
+        <v>-0.8355970557560539</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04874017496047622</v>
+        <v>-0.04865989998528988</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.09739596186271778</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2276982789567579</v>
+        <v>-0.2344728572548361</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8287941451137923</v>
+        <v>-0.8235180330191925</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0910387908071896</v>
+        <v>-0.09073343109765727</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1092858267067608</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3156151169770078</v>
+        <v>-0.3224432119252102</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7781988744787031</v>
+        <v>-0.7713707795305007</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1232007235127266</v>
+        <v>-0.1229945270078362</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1191573341965145</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4357300901425846</v>
+        <v>-0.4438347145981619</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8313448430998601</v>
+        <v>-0.8253675054867208</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1501510789076369</v>
+        <v>-0.1500109912058412</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.127461135195314</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4968429565462051</v>
+        <v>-0.5044438948829661</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8034571593182152</v>
+        <v>-0.7965110129359153</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1686536736785265</v>
+        <v>-0.1682003561715919</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1347166661152064</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5969143702211389</v>
+        <v>-0.6045751212845094</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8229387939825539</v>
+        <v>-0.8159548711413427</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.201593171829986</v>
+        <v>-0.2013806792486104</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1415681595016638</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6864571699936924</v>
+        <v>-0.6938125613475306</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8647423808156182</v>
+        <v>-0.8577435047927546</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2268876591092881</v>
+        <v>-0.2260786132809395</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1484547433274128</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7697668540458953</v>
+        <v>-0.7777974996027714</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8661692291490772</v>
+        <v>-0.8588886037035008</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2408381905813761</v>
+        <v>-0.239796189923075</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1556543199527537</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.819762423395769</v>
+        <v>-0.8279032502911362</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8741739033904519</v>
+        <v>-0.8665540768242352</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2676988268863723</v>
+        <v>-0.2670015364156361</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1634051277128233</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8973898984200763</v>
+        <v>-0.9047594559460062</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8768914474033775</v>
+        <v>-0.8691079228485455</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2794740639328228</v>
+        <v>-0.2786193715499565</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1718304022440358</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9261629679574529</v>
+        <v>-0.9330831430242514</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8876451460401038</v>
+        <v>-0.8798797227051669</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2945500190766407</v>
+        <v>-0.2936622722922271</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1806370619029906</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9964256075131943</v>
+        <v>-1.003091578491903</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8631817408568485</v>
+        <v>-0.8546474091811562</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2882618126870445</v>
+        <v>-0.2866075185905574</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1898118863657336</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.017201085895242</v>
+        <v>-1.023549892021008</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.918253521872917</v>
+        <v>-0.9100788535664418</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.309947074121204</v>
+        <v>-0.3083667589234182</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1988208330544779</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.029279321622543</v>
+        <v>-1.035444754520678</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8989403072545575</v>
+        <v>-0.8902375555328861</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3268882419237634</v>
+        <v>-0.3253929237585277</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2071172503475404</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.033297792439223</v>
+        <v>-1.038229981355819</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9328753725002397</v>
+        <v>-0.924119104128444</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3268347252736392</v>
+        <v>-0.3250623797430546</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2142574524718567</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9998837275226919</v>
+        <v>-1.004107607834702</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9764969514184063</v>
+        <v>-0.9681058554827523</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3234269738760231</v>
+        <v>-0.3210927035191342</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2195694535083114</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9370945307548862</v>
+        <v>-0.939820731872979</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.034664828046073</v>
+        <v>-1.026538167322798</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.296692259100731</v>
+        <v>-0.2938495805676619</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2225119280938785</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8671750273675883</v>
+        <v>-0.869068572370513</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.072142223324243</v>
+        <v>-1.064615263886183</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3002117658559593</v>
+        <v>-0.2979939729140466</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2229996726947776</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8086671626097205</v>
+        <v>-0.8096446284840482</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.117078895218256</v>
+        <v>-1.110182330438277</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2968921595291362</v>
+        <v>-0.2947310312755903</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.221083885004761</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6851318458935574</v>
+        <v>-0.6849162052739391</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.157731087064089</v>
+        <v>-1.151937909688142</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2659469436043647</v>
+        <v>-0.2632805552128813</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2167976788976468</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5422612782913365</v>
+        <v>-0.541206685480065</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.219951275919544</v>
+        <v>-1.215039549251526</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2359996558024977</v>
+        <v>-0.2330546660265441</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2100027654283962</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4219243684296563</v>
+        <v>-0.4200292494076103</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.219003716408521</v>
+        <v>-1.214119535075125</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1982263449295238</v>
+        <v>-0.1951412674517745</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2008179306753446</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2868121410763266</v>
+        <v>-0.2847942485628191</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.25226903651809</v>
+        <v>-1.247709103123682</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1768543133005031</v>
+        <v>-0.1738510848170614</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1889082662326927</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1393737699840911</v>
+        <v>-0.1365940522158741</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.273484453244541</v>
+        <v>-1.270004296967346</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1403968824129366</v>
+        <v>-0.1369844089579567</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1736868573493582</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002154159307660217</v>
+        <v>0.004715088418016436</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.259973860116857</v>
+        <v>-1.256611755273759</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1133269015648073</v>
+        <v>-0.1100513677733806</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1552557901353134</v>
       </c>
       <c r="E81" t="n">
-        <v>0.156033416644258</v>
+        <v>0.1579474238957597</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.299632845897149</v>
+        <v>-1.29728598338729</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.0944701524916251</v>
+        <v>-0.09135044659320714</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1345762417577963</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2674361939734355</v>
+        <v>0.2689126239092156</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.304594941177049</v>
+        <v>-1.301689301879128</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02243044534793523</v>
+        <v>-0.01845604706665099</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1126011735284729</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4289022234747027</v>
+        <v>0.4302118073836249</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.282889217494313</v>
+        <v>-1.280964192108962</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.009690334580127458</v>
+        <v>-0.006180271939626925</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.0905517271026383</v>
       </c>
       <c r="E84" t="n">
-        <v>0.562284603813723</v>
+        <v>0.562818196295844</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.283852517196549</v>
+        <v>-1.28271607539097</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07109304878238774</v>
+        <v>0.07623064719431319</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.0702038298656555</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7004079297461009</v>
+        <v>0.7009194859605237</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.231956319757705</v>
+        <v>-1.231172458235297</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1111203550370642</v>
+        <v>0.1166152557895249</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.05311081610362965</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8860571890270319</v>
+        <v>0.8868504946641674</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.192231225174318</v>
+        <v>-1.192119469816706</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1552212227776669</v>
+        <v>0.16079167644795</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.04040190295460603</v>
       </c>
       <c r="E87" t="n">
-        <v>1.008865308909154</v>
+        <v>1.009856940955574</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.058974766365002</v>
+        <v>-1.058250717569203</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1863348587484176</v>
+        <v>0.1915322698869525</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03285030456754864</v>
       </c>
       <c r="E88" t="n">
-        <v>1.144234101379256</v>
+        <v>1.145491742657175</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9447836141624401</v>
+        <v>-0.944209884192726</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2180119935645939</v>
+        <v>0.2230740390586969</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.03078042062056255</v>
       </c>
       <c r="E89" t="n">
-        <v>1.248862300410355</v>
+        <v>1.249707548678494</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8599864820406081</v>
+        <v>-0.8599628717537886</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2299540766379023</v>
+        <v>0.2350444544761887</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.03327838350006616</v>
       </c>
       <c r="E90" t="n">
-        <v>1.326439406822781</v>
+        <v>1.327435760926564</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7437939645253127</v>
+        <v>-0.7446423608316937</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1977496454160902</v>
+        <v>0.2010771218385198</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.03922218248683168</v>
       </c>
       <c r="E91" t="n">
-        <v>1.318292283850929</v>
+        <v>1.31842764949536</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6024706577193304</v>
+        <v>-0.6042225410013381</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1930527723581289</v>
+        <v>0.1963881188761651</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.0473038107215742</v>
       </c>
       <c r="E92" t="n">
-        <v>1.30526097954568</v>
+        <v>1.304579429266157</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4709046954462911</v>
+        <v>-0.4731980413060262</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1680337384250545</v>
+        <v>0.1708118821741502</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05647416593808276</v>
       </c>
       <c r="E93" t="n">
-        <v>1.275264897151053</v>
+        <v>1.27400253381577</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3352698937446895</v>
+        <v>-0.3381534967749124</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1615110031863844</v>
+        <v>0.1640231377039804</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.06623891510882722</v>
       </c>
       <c r="E94" t="n">
-        <v>1.194498827998872</v>
+        <v>1.192266868884868</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1864574039595586</v>
+        <v>-0.1893095266073554</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1425834232527437</v>
+        <v>0.1453946214033867</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.07611194711644614</v>
       </c>
       <c r="E95" t="n">
-        <v>1.162009499316105</v>
+        <v>1.159524123123571</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09403729723326741</v>
+        <v>-0.09782910929648077</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1246663635949779</v>
+        <v>0.1276963504034818</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08579501445860147</v>
       </c>
       <c r="E96" t="n">
-        <v>1.121250274170023</v>
+        <v>1.119759678062151</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01230500862092835</v>
+        <v>0.009108175785566655</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0568009551609775</v>
+        <v>0.05877320111996726</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.09548915286620162</v>
       </c>
       <c r="E97" t="n">
-        <v>1.02695236263202</v>
+        <v>1.02427810414493</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0677954787232628</v>
+        <v>0.0652581598997261</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03245087935445586</v>
+        <v>0.03385805244889867</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1060617830983041</v>
       </c>
       <c r="E98" t="n">
-        <v>1.002470069219309</v>
+        <v>1.000511989432411</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1012717173950858</v>
+        <v>0.09930419349345997</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.00669497619229225</v>
+        <v>-0.005752138738633138</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1182471213324397</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9777453768619182</v>
+        <v>0.9766089350563392</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1658600180185383</v>
+        <v>0.1654004044351184</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02401863064132762</v>
+        <v>-0.02340633720314165</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1349017680329272</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8872502955209778</v>
+        <v>0.886241349264224</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1548355880929482</v>
+        <v>0.1544027328345906</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03469520234111018</v>
+        <v>-0.0344968759318263</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1546329855877743</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8056987908272678</v>
+        <v>0.8044285573963782</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1424449095700692</v>
+        <v>0.1422119547401167</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06358947135082692</v>
+        <v>-0.0635784532169778</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1831328571575848</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6830968674500359</v>
+        <v>0.681667658087895</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1369767671426706</v>
+        <v>0.1368917701101204</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08167337703545051</v>
+        <v>-0.08135385115382647</v>
       </c>
     </row>
   </sheetData>
